--- a/詳細設計_画面遷移図.xlsx
+++ b/詳細設計_画面遷移図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/kadai_sekkei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{89EC9701-C760-4E8D-9B54-CD3CADB098E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE3C289E-781A-4129-831A-AA4052D995D6}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{89EC9701-C760-4E8D-9B54-CD3CADB098E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA01C631-98D4-4B3B-A726-734C0F10B386}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="3" r:id="rId1"/>
@@ -515,6 +515,15 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -523,15 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -6824,7 +6824,7 @@
       <xdr:col>34</xdr:col>
       <xdr:colOff>330700</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>30602</xdr:rowOff>
+      <xdr:rowOff>107108</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6840,7 +6840,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9333480" y="5091092"/>
-          <a:ext cx="965955" cy="578004"/>
+          <a:ext cx="965955" cy="654510"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9784,6 +9784,381 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>244819</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>214217</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>88365</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67AD14FD-E3E4-40BE-82F8-5FBAE0BB6ACE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7321626" y="9731566"/>
+          <a:ext cx="818615" cy="654510"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>チャット画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>237168</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>206566</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>65414</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE20F84-8251-4F2F-B9CD-5333D167AA27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5049397" y="2478796"/>
+          <a:ext cx="818615" cy="654510"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>チャット画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>206566</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>13758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>59485</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B2992C-2CB4-4B1C-8231-855D29E83F2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="128" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5868012" y="2760324"/>
+          <a:ext cx="298756" cy="45727"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133886</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>48838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>196175</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>45903</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{961C3A77-3475-4680-9A7A-63035FCA8E5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="0"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3247681" y="10025224"/>
+          <a:ext cx="62289" cy="318390"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7650</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>45903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>260121</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>57763</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06432C63-3E94-4A6F-BB38-DF442BB3B59B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838373" y="10343614"/>
+          <a:ext cx="818615" cy="654510"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>チャット画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10092,7 +10467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
@@ -11725,8 +12100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FQ84"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="83" zoomScaleNormal="83" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC55" sqref="AC55"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="83" zoomScaleNormal="83" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AG53" sqref="AG53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -11739,37 +12114,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="63"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -11803,10 +12178,10 @@
         <v>1</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="61" t="s">
+      <c r="AB2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="62"/>
+      <c r="AC2" s="59"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -11816,32 +12191,32 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="62"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="59"/>
     </row>
     <row r="4" spans="1:173" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="29"/>
@@ -13105,37 +13480,37 @@
       <c r="AC42" s="25"/>
     </row>
     <row r="44" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="59"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="59"/>
-      <c r="T44" s="59"/>
-      <c r="U44" s="59"/>
-      <c r="V44" s="59"/>
-      <c r="W44" s="59"/>
-      <c r="X44" s="59"/>
-      <c r="Y44" s="59"/>
-      <c r="Z44" s="59"/>
-      <c r="AA44" s="59"/>
-      <c r="AB44" s="59"/>
-      <c r="AC44" s="60"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="62"/>
+      <c r="S44" s="62"/>
+      <c r="T44" s="62"/>
+      <c r="U44" s="62"/>
+      <c r="V44" s="62"/>
+      <c r="W44" s="62"/>
+      <c r="X44" s="62"/>
+      <c r="Y44" s="62"/>
+      <c r="Z44" s="62"/>
+      <c r="AA44" s="62"/>
+      <c r="AB44" s="62"/>
+      <c r="AC44" s="63"/>
     </row>
     <row r="45" spans="1:29" ht="12.75" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -13169,10 +13544,10 @@
         <v>1</v>
       </c>
       <c r="AA45" s="3"/>
-      <c r="AB45" s="61" t="s">
+      <c r="AB45" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AC45" s="62"/>
+      <c r="AC45" s="59"/>
     </row>
     <row r="46" spans="1:29" ht="12.75" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -13182,32 +13557,32 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="61" t="s">
+      <c r="F46" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="63"/>
-      <c r="M46" s="63"/>
-      <c r="N46" s="63"/>
-      <c r="O46" s="63"/>
-      <c r="P46" s="63"/>
-      <c r="Q46" s="63"/>
-      <c r="R46" s="63"/>
-      <c r="S46" s="63"/>
-      <c r="T46" s="63"/>
-      <c r="U46" s="63"/>
-      <c r="V46" s="63"/>
-      <c r="W46" s="63"/>
-      <c r="X46" s="63"/>
-      <c r="Y46" s="62"/>
-      <c r="Z46" s="61"/>
-      <c r="AA46" s="62"/>
-      <c r="AB46" s="61"/>
-      <c r="AC46" s="62"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="60"/>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="60"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="60"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="60"/>
+      <c r="V46" s="60"/>
+      <c r="W46" s="60"/>
+      <c r="X46" s="60"/>
+      <c r="Y46" s="59"/>
+      <c r="Z46" s="58"/>
+      <c r="AA46" s="59"/>
+      <c r="AB46" s="58"/>
+      <c r="AC46" s="59"/>
     </row>
     <row r="84" spans="1:30" ht="12.75" customHeight="1">
       <c r="A84" s="26"/>
@@ -13243,16 +13618,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="A44:AC44"/>
     <mergeCell ref="AB45:AC45"/>
     <mergeCell ref="Z46:AA46"/>
     <mergeCell ref="AB46:AC46"/>
     <mergeCell ref="F3:Y3"/>
     <mergeCell ref="F46:Y46"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="A44:AC44"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
